--- a/src/analysis_examples/circainsilico/results_circainsilico/cosinor_simulation_100_.xlsx
+++ b/src/analysis_examples/circainsilico/results_circainsilico/cosinor_simulation_100_.xlsx
@@ -564,7 +564,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Gene</t>
+          <t>Simulation</t>
         </is>
       </c>
       <c r="D2" t="n">
@@ -589,7 +589,7 @@
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>[3.9256782573195306, 4.596084036928739]</t>
+          <t>[3.9345392111726474, 4.587223083075622]</t>
         </is>
       </c>
       <c r="M2" t="n">
@@ -617,14 +617,14 @@
       </c>
       <c r="T2" t="inlineStr">
         <is>
-          <t>[0.10947229395696967, 0.4605549886917646]</t>
+          <t>[0.10964433812644758, 0.4603829445222867]</t>
         </is>
       </c>
       <c r="U2" t="n">
-        <v>0.002065666712978587</v>
+        <v>0.002046864269986681</v>
       </c>
       <c r="V2" t="n">
-        <v>0.002065666712978587</v>
+        <v>0.002046864269986681</v>
       </c>
       <c r="W2" t="n">
         <v>20.74112112112151</v>
